--- a/runtimes_vs_numtrajs.xlsx
+++ b/runtimes_vs_numtrajs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ersat\CODE\rc_ecoli_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DBE60D-5D69-477E-95E9-A480C3C70AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AD57C0-CF95-492E-BD46-2BB749F0E8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
   <si>
     <t>Number of stochastic trajectories</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Implementation</t>
+  </si>
+  <si>
+    <t>Python - no JAX</t>
   </si>
 </sst>
 </file>
@@ -357,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,6 +582,105 @@
         <v>1</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>4.1497049331665004</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>12.118836641311599</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>23.812415361404401</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>48.085695743560699</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>96.157960414886404</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>48</v>
+      </c>
+      <c r="B25">
+        <v>194.18322443962001</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>96</v>
+      </c>
+      <c r="B26">
+        <v>387.66226625442499</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>192</v>
+      </c>
+      <c r="B27">
+        <v>783.67106533050503</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>384</v>
+      </c>
+      <c r="B28">
+        <v>1561.1340591907499</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/runtimes_vs_numtrajs.xlsx
+++ b/runtimes_vs_numtrajs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ersat\CODE\rc_ecoli_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AD57C0-CF95-492E-BD46-2BB749F0E8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E2AA1D-F898-485E-9AB6-29AF7DAE8B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -362,8 +362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>4.1497049331665004</v>
+        <v>4.1110913753509504</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -598,7 +598,7 @@
         <v>3</v>
       </c>
       <c r="B21">
-        <v>12.118836641311599</v>
+        <v>12.277224540710399</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -609,7 +609,7 @@
         <v>6</v>
       </c>
       <c r="B22">
-        <v>23.812415361404401</v>
+        <v>24.518786907195999</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -620,7 +620,7 @@
         <v>12</v>
       </c>
       <c r="B23">
-        <v>48.085695743560699</v>
+        <v>48.8175530433654</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -631,7 +631,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>96.157960414886404</v>
+        <v>96.888673782348604</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -642,7 +642,7 @@
         <v>48</v>
       </c>
       <c r="B25">
-        <v>194.18322443962001</v>
+        <v>192.73704218864401</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -653,7 +653,7 @@
         <v>96</v>
       </c>
       <c r="B26">
-        <v>387.66226625442499</v>
+        <v>385.05728983878998</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -664,7 +664,7 @@
         <v>192</v>
       </c>
       <c r="B27">
-        <v>783.67106533050503</v>
+        <v>780.76708555221501</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -675,7 +675,7 @@
         <v>384</v>
       </c>
       <c r="B28">
-        <v>1561.1340591907499</v>
+        <v>1590.6750056743599</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
